--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2465.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2465.xlsx
@@ -354,7 +354,7 @@
         <v>2.520406231357952</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.265471931665556</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2465.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2465.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.113728329316729</v>
+        <v>1.729187369346619</v>
       </c>
       <c r="B1">
-        <v>2.520406231357952</v>
+        <v>2.603153228759766</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.270663976669312</v>
       </c>
       <c r="D1">
-        <v>3.265471931665556</v>
+        <v>2.146920442581177</v>
       </c>
       <c r="E1">
-        <v>0.9423140341379285</v>
+        <v>0.4908601343631744</v>
       </c>
     </row>
   </sheetData>
